--- a/NnipBbhStandardFileValidator.xlsx
+++ b/NnipBbhStandardFileValidator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>FeedId</t>
   </si>
@@ -2737,6 +2737,18 @@
       </rPr>
       <t>".</t>
     </r>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>1 - F</t>
+  </si>
+  <si>
+    <t>3 - F</t>
+  </si>
+  <si>
+    <t>2,3 - F</t>
   </si>
 </sst>
 </file>
@@ -2928,11 +2940,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2940,8 +2949,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3308,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3365,9 @@
       <c r="D2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
@@ -3369,7 +3383,9 @@
       <c r="D3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
@@ -3385,7 +3401,9 @@
       <c r="D4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -3395,13 +3413,15 @@
       <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3417,7 +3437,9 @@
       <c r="D6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
@@ -3433,7 +3455,9 @@
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
@@ -3449,7 +3473,9 @@
       <c r="D8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
@@ -3465,7 +3491,9 @@
       <c r="D9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="131.25" x14ac:dyDescent="0.25">
@@ -3481,7 +3509,9 @@
       <c r="D10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
@@ -4157,14 +4187,14 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="13" t="s">
+      <c r="B53" s="15"/>
+      <c r="C53" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
